--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Accuracy Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,13 +453,221 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Action Generation</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Association Reasoning</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Causal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cognitive Map</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Counterfactual</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Goal Detection</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>High-level Planning</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Landmark Position</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Object Recall</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Progress Evaluation</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Proximity</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Scene Recall</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sequence Recall</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Start/End Position</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Trajectory Captioning</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C18" t="n">
         <v>100</v>
       </c>
     </row>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>21</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C10" t="n">
         <v>13</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C12" t="n">
         <v>12</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C12" t="n">
         <v>12</v>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>0.3125</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.48</v>
+        <v>0.4086378737541528</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.2532467532467532</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5625</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.55</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3125</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3720930232558139</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="C17" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4086378737541528</v>
+        <v>0.3955119214586255</v>
       </c>
       <c r="C18" t="n">
-        <v>301</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2532467532467532</v>
+        <v>0.2662337662337662</v>
       </c>
       <c r="C2" t="n">
         <v>154</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C4" t="n">
         <v>11</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C6" t="n">
         <v>23</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
         <v>20</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C9" t="n">
         <v>29</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.4326241134751773</v>
       </c>
       <c r="C10" t="n">
         <v>141</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C15" t="n">
         <v>21</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3955119214586255</v>
+        <v>0.4165497896213184</v>
       </c>
       <c r="C18" t="n">
         <v>713</v>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2662337662337662</v>
+        <v>0.2904761904761905</v>
       </c>
       <c r="C2" t="n">
-        <v>154</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.65</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4326241134751773</v>
+        <v>0.4336734693877551</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.3206106870229007</v>
       </c>
       <c r="C12" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.84</v>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C17" t="n">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4165497896213184</v>
+        <v>0.4232698094282848</v>
       </c>
       <c r="C18" t="n">
-        <v>713</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2904761904761905</v>
+        <v>0.3476190476190476</v>
       </c>
       <c r="C2" t="n">
         <v>210</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="C3" t="n">
         <v>41</v>
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
         <v>45</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="C7" t="n">
         <v>25</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3090909090909091</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C8" t="n">
         <v>55</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C9" t="n">
         <v>44</v>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4336734693877551</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C10" t="n">
         <v>196</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3206106870229007</v>
+        <v>0.3511450381679389</v>
       </c>
       <c r="C12" t="n">
         <v>131</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C13" t="n">
         <v>17</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C14" t="n">
         <v>31</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="C15" t="n">
         <v>25</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C16" t="n">
         <v>29</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C17" t="n">
         <v>74</v>
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4232698094282848</v>
+        <v>0.4704112337011033</v>
       </c>
       <c r="C18" t="n">
         <v>997</v>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3476190476190476</v>
+        <v>0.3789954337899543</v>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.68</v>
+        <v>0.71875</v>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3272727272727273</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4897959183673469</v>
+        <v>0.5144230769230769</v>
       </c>
       <c r="C10" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3511450381679389</v>
+        <v>0.4071428571428571</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C14" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.88</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.625</v>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4704112337011033</v>
+        <v>0.4990689013035381</v>
       </c>
       <c r="C18" t="n">
-        <v>997</v>
+        <v>1074</v>
       </c>
     </row>
   </sheetData>

--- a/textgrad_results/accuracy_results.xlsx
+++ b/textgrad_results/accuracy_results.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3789954337899543</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C2" t="n">
-        <v>219</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.71875</v>
+        <v>0.7</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.3563218390804598</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.59375</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5144230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
-        <v>208</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4071428571428571</v>
+        <v>0.4540229885057471</v>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4939759036144578</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4990689013035381</v>
+        <v>0.4943181818181818</v>
       </c>
       <c r="C18" t="n">
-        <v>1074</v>
+        <v>1408</v>
       </c>
     </row>
   </sheetData>
